--- a/pabi_account_report/xlsx_template/xlsx_report_gl_expenditure.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_gl_expenditure.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Expenditure" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Expenditure Report" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,27 +20,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
-  <si>
-    <t xml:space="preserve">Expenditure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time Filters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Account Filters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activity Group Filters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activity Filters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External Source of Fund Filters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cost Center Filters</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
+  <si>
+    <t xml:space="preserve">Expenditure Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiscal Year From</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiscal Year To</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filter by</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period From</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period To</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date From</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date To</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Account Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activity Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budget View</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investment Asset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source of Fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project (C)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run By</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run Date</t>
   </si>
   <si>
     <t xml:space="preserve">Charge Type</t>
@@ -49,9 +88,6 @@
     <t xml:space="preserve">Fund Rule - Expense Group</t>
   </si>
   <si>
-    <t xml:space="preserve">Account Code</t>
-  </si>
-  <si>
     <t xml:space="preserve">Account Name</t>
   </si>
   <si>
@@ -128,9 +164,6 @@
   </si>
   <si>
     <t xml:space="preserve">Source Doc/Reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source of Fund</t>
   </si>
   <si>
     <t xml:space="preserve">Source of Budget Type</t>
@@ -315,7 +348,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -344,18 +377,38 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -365,18 +418,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BF13"/>
+  <dimension ref="A1:BF20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.95"/>
@@ -467,7 +520,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="3"/>
+      <c r="C3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="8"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="X3" s="3"/>
@@ -482,10 +538,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="3"/>
+      <c r="C4" s="9"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="X4" s="3"/>
@@ -500,10 +556,13 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="3"/>
+      <c r="C5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="8"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="X5" s="3"/>
@@ -518,10 +577,13 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="6"/>
-      <c r="C6" s="3"/>
+      <c r="C6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="10"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="X6" s="3"/>
@@ -536,7 +598,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="3"/>
@@ -554,7 +616,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="3"/>
@@ -571,6 +633,10 @@
       <c r="BB8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6"/>
       <c r="C9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -585,6 +651,10 @@
       <c r="BB9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="6"/>
       <c r="C10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -599,6 +669,10 @@
       <c r="BB10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="6"/>
       <c r="C11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -613,6 +687,10 @@
       <c r="BB11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="8"/>
       <c r="C12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -627,179 +705,301 @@
       <c r="BB12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AH13" s="3"/>
+      <c r="AS13" s="3"/>
+      <c r="AV13" s="3"/>
+      <c r="AW13" s="3"/>
+      <c r="BB13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AH14" s="3"/>
+      <c r="AS14" s="3"/>
+      <c r="AV14" s="3"/>
+      <c r="AW14" s="3"/>
+      <c r="BB14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AH15" s="3"/>
+      <c r="AS15" s="3"/>
+      <c r="AV15" s="3"/>
+      <c r="AW15" s="3"/>
+      <c r="BB15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AH16" s="3"/>
+      <c r="AS16" s="3"/>
+      <c r="AV16" s="3"/>
+      <c r="AW16" s="3"/>
+      <c r="BB16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AS17" s="3"/>
+      <c r="AV17" s="3"/>
+      <c r="AW17" s="3"/>
+      <c r="BB17" s="3"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AS18" s="3"/>
+      <c r="AV18" s="3"/>
+      <c r="AW18" s="3"/>
+      <c r="BB18" s="3"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AS19" s="3"/>
+      <c r="AV19" s="3"/>
+      <c r="AW19" s="3"/>
+      <c r="BB19" s="3"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="7" t="s">
+      <c r="D20" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q20" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="R20" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="S20" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="T20" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="U20" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="V20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="W20" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="X20" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y20" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z20" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA20" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB20" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC20" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="R13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="S13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="T13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="U13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="V13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="W13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="X13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE13" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AI13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AJ13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AM13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AN13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="AP13" s="7" t="s">
+      <c r="AE20" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="AQ13" s="7" t="s">
+      <c r="AF20" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AR13" s="7" t="s">
+      <c r="AG20" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AS13" s="7" t="s">
+      <c r="AH20" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="AT13" s="7" t="s">
+      <c r="AI20" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AU13" s="7" t="s">
+      <c r="AJ20" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="AV13" s="7" t="s">
+      <c r="AK20" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="AW13" s="7" t="s">
+      <c r="AL20" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="AX13" s="7" t="s">
+      <c r="AM20" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AY13" s="7" t="s">
+      <c r="AN20" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AZ13" s="7" t="s">
+      <c r="AO20" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="BA13" s="7" t="s">
+      <c r="AP20" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="BB13" s="7" t="s">
+      <c r="AQ20" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="BC13" s="7" t="s">
+      <c r="AR20" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="BD13" s="7" t="s">
+      <c r="AS20" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="BE13" s="7" t="s">
+      <c r="AT20" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="BF13" s="7" t="s">
+      <c r="AU20" s="12" t="s">
         <v>64</v>
+      </c>
+      <c r="AV20" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW20" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX20" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AY20" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AZ20" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="BA20" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="BB20" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="BC20" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="BD20" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="BE20" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF20" s="12" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/pabi_account_report/xlsx_template/xlsx_report_gl_expenditure.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_gl_expenditure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="78">
   <si>
     <t xml:space="preserve">Expenditure Report</t>
   </si>
@@ -46,6 +46,9 @@
     <t xml:space="preserve">Date To</t>
   </si>
   <si>
+    <t xml:space="preserve">Account Type</t>
+  </si>
+  <si>
     <t xml:space="preserve">Account Code</t>
   </si>
   <si>
@@ -101,6 +104,9 @@
   </si>
   <si>
     <t xml:space="preserve">Activity Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product</t>
   </si>
   <si>
     <t xml:space="preserve">Fiscal Year</t>
@@ -418,7 +424,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BF20"/>
+  <dimension ref="A1:BH21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -434,86 +440,88 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22.79"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="14.72"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="27.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="28.19"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="15.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="16.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="28.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="21.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="15.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="24.17"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="18.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="17.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="19.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="18.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="25.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="24.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="23.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="22.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="24.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="22.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="21.26"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="19.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="34.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="25.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="20.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="21.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="28.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="21.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="24.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="22.79"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="47" min="46" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="49" min="48" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="17.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="20.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="1" width="21.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="17.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="25.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="22.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="20.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="59" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="40.98"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14.72"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="27.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="28.19"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="15.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="28.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="21.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="15.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="24.17"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="18.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="17.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="19.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="18.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="25.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="24.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="23.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="22.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="24.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="22.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="21.26"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="19.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="34.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="25.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="20.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="21.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="28.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="21.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="24.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="22.79"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="49" min="48" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="51" min="50" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="17.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="19.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="20.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="1" width="21.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="17.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="25.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="22.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="20.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="61" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
-      <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-      <c r="X1" s="3"/>
+      <c r="K1" s="3"/>
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AS1" s="3"/>
-      <c r="AV1" s="3"/>
-      <c r="AW1" s="3"/>
-      <c r="BB1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AX1" s="3"/>
+      <c r="AY1" s="3"/>
+      <c r="BD1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="X2" s="3"/>
+      <c r="K2" s="3"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AS2" s="3"/>
-      <c r="AV2" s="3"/>
-      <c r="AW2" s="3"/>
-      <c r="BB2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="BD2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
@@ -524,17 +532,17 @@
         <v>2</v>
       </c>
       <c r="D3" s="8"/>
-      <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="X3" s="3"/>
+      <c r="K3" s="3"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AS3" s="3"/>
-      <c r="AV3" s="3"/>
-      <c r="AW3" s="3"/>
-      <c r="BB3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+      <c r="BD3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
@@ -542,17 +550,17 @@
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="9"/>
-      <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="X4" s="3"/>
+      <c r="K4" s="3"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AS4" s="3"/>
-      <c r="AV4" s="3"/>
-      <c r="AW4" s="3"/>
-      <c r="BB4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3"/>
+      <c r="BD4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
@@ -563,17 +571,17 @@
         <v>5</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="X5" s="3"/>
+      <c r="K5" s="3"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AH5" s="3"/>
-      <c r="AS5" s="3"/>
-      <c r="AV5" s="3"/>
-      <c r="AW5" s="3"/>
-      <c r="BB5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AU5" s="3"/>
+      <c r="AX5" s="3"/>
+      <c r="AY5" s="3"/>
+      <c r="BD5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
@@ -584,35 +592,36 @@
         <v>7</v>
       </c>
       <c r="D6" s="10"/>
-      <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="X6" s="3"/>
+      <c r="K6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AS6" s="3"/>
-      <c r="AV6" s="3"/>
-      <c r="AW6" s="3"/>
-      <c r="BB6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AU6" s="3"/>
+      <c r="AX6" s="3"/>
+      <c r="AY6" s="3"/>
+      <c r="BD6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="10"/>
       <c r="J7" s="3"/>
-      <c r="X7" s="3"/>
+      <c r="K7" s="3"/>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AS7" s="3"/>
-      <c r="AV7" s="3"/>
-      <c r="AW7" s="3"/>
-      <c r="BB7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AU7" s="3"/>
+      <c r="AX7" s="3"/>
+      <c r="AY7" s="3"/>
+      <c r="BD7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
@@ -620,17 +629,17 @@
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="3"/>
-      <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="X8" s="3"/>
+      <c r="K8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AV8" s="3"/>
-      <c r="AW8" s="3"/>
-      <c r="BB8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AU8" s="3"/>
+      <c r="AX8" s="3"/>
+      <c r="AY8" s="3"/>
+      <c r="BD8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
@@ -638,17 +647,17 @@
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="3"/>
-      <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="X9" s="3"/>
+      <c r="K9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AH9" s="3"/>
-      <c r="AS9" s="3"/>
-      <c r="AV9" s="3"/>
-      <c r="AW9" s="3"/>
-      <c r="BB9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AU9" s="3"/>
+      <c r="AX9" s="3"/>
+      <c r="AY9" s="3"/>
+      <c r="BD9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
@@ -656,17 +665,17 @@
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="3"/>
-      <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="X10" s="3"/>
+      <c r="K10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AH10" s="3"/>
-      <c r="AS10" s="3"/>
-      <c r="AV10" s="3"/>
-      <c r="AW10" s="3"/>
-      <c r="BB10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AU10" s="3"/>
+      <c r="AX10" s="3"/>
+      <c r="AY10" s="3"/>
+      <c r="BD10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
@@ -674,35 +683,35 @@
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="3"/>
-      <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="X11" s="3"/>
+      <c r="K11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AH11" s="3"/>
-      <c r="AS11" s="3"/>
-      <c r="AV11" s="3"/>
-      <c r="AW11" s="3"/>
-      <c r="BB11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AI11" s="3"/>
+      <c r="AU11" s="3"/>
+      <c r="AX11" s="3"/>
+      <c r="AY11" s="3"/>
+      <c r="BD11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="8"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="3"/>
-      <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="X12" s="3"/>
+      <c r="K12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AS12" s="3"/>
-      <c r="AV12" s="3"/>
-      <c r="AW12" s="3"/>
-      <c r="BB12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AU12" s="3"/>
+      <c r="AX12" s="3"/>
+      <c r="AY12" s="3"/>
+      <c r="BD12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
@@ -710,17 +719,17 @@
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="3"/>
-      <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="X13" s="3"/>
+      <c r="K13" s="3"/>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AS13" s="3"/>
-      <c r="AV13" s="3"/>
-      <c r="AW13" s="3"/>
-      <c r="BB13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AI13" s="3"/>
+      <c r="AU13" s="3"/>
+      <c r="AX13" s="3"/>
+      <c r="AY13" s="3"/>
+      <c r="BD13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
@@ -728,17 +737,17 @@
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="3"/>
-      <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="X14" s="3"/>
+      <c r="K14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AH14" s="3"/>
-      <c r="AS14" s="3"/>
-      <c r="AV14" s="3"/>
-      <c r="AW14" s="3"/>
-      <c r="BB14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AI14" s="3"/>
+      <c r="AU14" s="3"/>
+      <c r="AX14" s="3"/>
+      <c r="AY14" s="3"/>
+      <c r="BD14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
@@ -746,17 +755,17 @@
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="3"/>
-      <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="X15" s="3"/>
+      <c r="K15" s="3"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AH15" s="3"/>
-      <c r="AS15" s="3"/>
-      <c r="AV15" s="3"/>
-      <c r="AW15" s="3"/>
-      <c r="BB15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AI15" s="3"/>
+      <c r="AU15" s="3"/>
+      <c r="AX15" s="3"/>
+      <c r="AY15" s="3"/>
+      <c r="BD15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
@@ -764,17 +773,17 @@
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="3"/>
-      <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="X16" s="3"/>
+      <c r="K16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AH16" s="3"/>
-      <c r="AS16" s="3"/>
-      <c r="AV16" s="3"/>
-      <c r="AW16" s="3"/>
-      <c r="BB16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AI16" s="3"/>
+      <c r="AU16" s="3"/>
+      <c r="AX16" s="3"/>
+      <c r="AY16" s="3"/>
+      <c r="BD16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
@@ -782,17 +791,17 @@
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="3"/>
-      <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="X17" s="3"/>
+      <c r="K17" s="3"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AH17" s="3"/>
-      <c r="AS17" s="3"/>
-      <c r="AV17" s="3"/>
-      <c r="AW17" s="3"/>
-      <c r="BB17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AU17" s="3"/>
+      <c r="AX17" s="3"/>
+      <c r="AY17" s="3"/>
+      <c r="BD17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
@@ -800,206 +809,230 @@
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="3"/>
-      <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="X18" s="3"/>
+      <c r="K18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AH18" s="3"/>
-      <c r="AS18" s="3"/>
-      <c r="AV18" s="3"/>
-      <c r="AW18" s="3"/>
-      <c r="BB18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AU18" s="3"/>
+      <c r="AX18" s="3"/>
+      <c r="AY18" s="3"/>
+      <c r="BD18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="8"/>
       <c r="C19" s="3"/>
-      <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="X19" s="3"/>
+      <c r="K19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AH19" s="3"/>
-      <c r="AS19" s="3"/>
-      <c r="AV19" s="3"/>
-      <c r="AW19" s="3"/>
-      <c r="BB19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AU19" s="3"/>
+      <c r="AX19" s="3"/>
+      <c r="AY19" s="3"/>
+      <c r="BD19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="12" t="s">
+      <c r="C20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AU20" s="3"/>
+      <c r="AX20" s="3"/>
+      <c r="AY20" s="3"/>
+      <c r="BD20" s="3"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="12" t="s">
+      <c r="B21" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="C21" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="E21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="F21" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="G21" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="H21" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="I21" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="K20" s="12" t="s">
+      <c r="J21" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L20" s="12" t="s">
+      <c r="K21" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="M20" s="12" t="s">
+      <c r="L21" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N20" s="12" t="s">
+      <c r="M21" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="O20" s="12" t="s">
+      <c r="N21" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="P20" s="12" t="s">
+      <c r="O21" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="Q20" s="12" t="s">
+      <c r="P21" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="R20" s="12" t="s">
+      <c r="Q21" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="S20" s="12" t="s">
+      <c r="R21" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="T20" s="12" t="s">
+      <c r="S21" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="U20" s="12" t="s">
+      <c r="T21" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="V20" s="12" t="s">
+      <c r="U21" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="W20" s="12" t="s">
+      <c r="V21" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="X20" s="12" t="s">
+      <c r="W21" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="Y20" s="12" t="s">
+      <c r="X21" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="Z20" s="12" t="s">
+      <c r="Y21" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AA20" s="12" t="s">
+      <c r="Z21" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AB20" s="12" t="s">
+      <c r="AA21" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AC20" s="12" t="s">
+      <c r="AB21" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AD20" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE20" s="12" t="s">
+      <c r="AC21" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="AF20" s="12" t="s">
+      <c r="AD21" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AG20" s="12" t="s">
+      <c r="AE21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF21" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AH20" s="12" t="s">
+      <c r="AG21" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="AI20" s="12" t="s">
+      <c r="AH21" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="AJ20" s="12" t="s">
+      <c r="AI21" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="AK20" s="12" t="s">
+      <c r="AJ21" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="AL20" s="12" t="s">
+      <c r="AK21" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="AM20" s="12" t="s">
+      <c r="AL21" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="AN20" s="12" t="s">
+      <c r="AM21" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AO20" s="12" t="s">
+      <c r="AN21" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="AP20" s="12" t="s">
+      <c r="AO21" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="AQ20" s="12" t="s">
+      <c r="AP21" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AR20" s="12" t="s">
+      <c r="AQ21" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="AS20" s="12" t="s">
+      <c r="AR21" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AT20" s="12" t="s">
+      <c r="AS21" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="AU20" s="12" t="s">
+      <c r="AT21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AU21" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="AV20" s="12" t="s">
+      <c r="AV21" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="AW20" s="12" t="s">
+      <c r="AW21" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="AX20" s="12" t="s">
+      <c r="AX21" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="AY20" s="12" t="s">
+      <c r="AY21" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="AZ20" s="12" t="s">
+      <c r="AZ21" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="BA20" s="12" t="s">
+      <c r="BA21" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="BB20" s="12" t="s">
+      <c r="BB21" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="BC20" s="12" t="s">
+      <c r="BC21" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="BD20" s="12" t="s">
+      <c r="BD21" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="BE20" s="12" t="s">
+      <c r="BE21" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="BF20" s="12" t="s">
+      <c r="BF21" s="12" t="s">
         <v>75</v>
+      </c>
+      <c r="BG21" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH21" s="12" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/pabi_account_report/xlsx_template/xlsx_report_gl_expenditure.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_gl_expenditure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
   <si>
     <t xml:space="preserve">Expenditure Report</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t xml:space="preserve">VAT Amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total</t>
   </si>
   <si>
     <t xml:space="preserve">Base Amount</t>
@@ -424,7 +427,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BH21"/>
+  <dimension ref="A1:BI21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -448,63 +451,64 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="28.19"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="15.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="16.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="28.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="21.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="15.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="24.17"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="18.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="17.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="19.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="18.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="25.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="24.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="23.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="22.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="24.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="22.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="21.26"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="19.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="34.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="25.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="20.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="21.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="28.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="21.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="24.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="22.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="1" width="22.79"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="49" min="48" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="51" min="50" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="17.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="20.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="1" width="21.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="17.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="25.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="22.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="20.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="61" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="25.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="28.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="21.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="15.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="24.17"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="18.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="17.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="19.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="18.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="25.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="24.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="23.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="22.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="24.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="22.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="21.26"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="19.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="34.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="25.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="20.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="21.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="28.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="21.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="24.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="22.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="1" width="22.79"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="50" min="49" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="52" min="51" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="19.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="17.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="19.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="20.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="1" width="21.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="17.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="25.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="22.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="20.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="62" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AU1" s="3"/>
-      <c r="AX1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AV1" s="3"/>
       <c r="AY1" s="3"/>
-      <c r="BD1" s="3"/>
+      <c r="AZ1" s="3"/>
+      <c r="BE1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -513,15 +517,15 @@
       <c r="C2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AU2" s="3"/>
-      <c r="AX2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AV2" s="3"/>
       <c r="AY2" s="3"/>
-      <c r="BD2" s="3"/>
+      <c r="AZ2" s="3"/>
+      <c r="BE2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
@@ -534,15 +538,15 @@
       <c r="D3" s="8"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AU3" s="3"/>
-      <c r="AX3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AV3" s="3"/>
       <c r="AY3" s="3"/>
-      <c r="BD3" s="3"/>
+      <c r="AZ3" s="3"/>
+      <c r="BE3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
@@ -552,15 +556,15 @@
       <c r="C4" s="9"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AU4" s="3"/>
-      <c r="AX4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AV4" s="3"/>
       <c r="AY4" s="3"/>
-      <c r="BD4" s="3"/>
+      <c r="AZ4" s="3"/>
+      <c r="BE4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
@@ -573,15 +577,15 @@
       <c r="D5" s="8"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AI5" s="3"/>
-      <c r="AU5" s="3"/>
-      <c r="AX5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AV5" s="3"/>
       <c r="AY5" s="3"/>
-      <c r="BD5" s="3"/>
+      <c r="AZ5" s="3"/>
+      <c r="BE5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
@@ -594,15 +598,15 @@
       <c r="D6" s="10"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
       <c r="AA6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AU6" s="3"/>
-      <c r="AX6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AV6" s="3"/>
       <c r="AY6" s="3"/>
-      <c r="BD6" s="3"/>
+      <c r="AZ6" s="3"/>
+      <c r="BE6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
@@ -613,15 +617,15 @@
       <c r="D7" s="10"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AU7" s="3"/>
-      <c r="AX7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AV7" s="3"/>
       <c r="AY7" s="3"/>
-      <c r="BD7" s="3"/>
+      <c r="AZ7" s="3"/>
+      <c r="BE7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
@@ -631,15 +635,15 @@
       <c r="C8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AU8" s="3"/>
-      <c r="AX8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AV8" s="3"/>
       <c r="AY8" s="3"/>
-      <c r="BD8" s="3"/>
+      <c r="AZ8" s="3"/>
+      <c r="BE8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
@@ -649,15 +653,15 @@
       <c r="C9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AI9" s="3"/>
-      <c r="AU9" s="3"/>
-      <c r="AX9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AJ9" s="3"/>
+      <c r="AV9" s="3"/>
       <c r="AY9" s="3"/>
-      <c r="BD9" s="3"/>
+      <c r="AZ9" s="3"/>
+      <c r="BE9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
@@ -667,15 +671,15 @@
       <c r="C10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AI10" s="3"/>
-      <c r="AU10" s="3"/>
-      <c r="AX10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AV10" s="3"/>
       <c r="AY10" s="3"/>
-      <c r="BD10" s="3"/>
+      <c r="AZ10" s="3"/>
+      <c r="BE10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
@@ -685,15 +689,15 @@
       <c r="C11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AI11" s="3"/>
-      <c r="AU11" s="3"/>
-      <c r="AX11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AD11" s="3"/>
+      <c r="AJ11" s="3"/>
+      <c r="AV11" s="3"/>
       <c r="AY11" s="3"/>
-      <c r="BD11" s="3"/>
+      <c r="AZ11" s="3"/>
+      <c r="BE11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
@@ -703,15 +707,15 @@
       <c r="C12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AU12" s="3"/>
-      <c r="AX12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AV12" s="3"/>
       <c r="AY12" s="3"/>
-      <c r="BD12" s="3"/>
+      <c r="AZ12" s="3"/>
+      <c r="BE12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
@@ -721,15 +725,15 @@
       <c r="C13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="AU13" s="3"/>
-      <c r="AX13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AJ13" s="3"/>
+      <c r="AV13" s="3"/>
       <c r="AY13" s="3"/>
-      <c r="BD13" s="3"/>
+      <c r="AZ13" s="3"/>
+      <c r="BE13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
@@ -739,15 +743,15 @@
       <c r="C14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AI14" s="3"/>
-      <c r="AU14" s="3"/>
-      <c r="AX14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AJ14" s="3"/>
+      <c r="AV14" s="3"/>
       <c r="AY14" s="3"/>
-      <c r="BD14" s="3"/>
+      <c r="AZ14" s="3"/>
+      <c r="BE14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
@@ -757,15 +761,15 @@
       <c r="C15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
       <c r="AA15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AI15" s="3"/>
-      <c r="AU15" s="3"/>
-      <c r="AX15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AJ15" s="3"/>
+      <c r="AV15" s="3"/>
       <c r="AY15" s="3"/>
-      <c r="BD15" s="3"/>
+      <c r="AZ15" s="3"/>
+      <c r="BE15" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
@@ -775,15 +779,15 @@
       <c r="C16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AI16" s="3"/>
-      <c r="AU16" s="3"/>
-      <c r="AX16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AJ16" s="3"/>
+      <c r="AV16" s="3"/>
       <c r="AY16" s="3"/>
-      <c r="BD16" s="3"/>
+      <c r="AZ16" s="3"/>
+      <c r="BE16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
@@ -793,15 +797,15 @@
       <c r="C17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
       <c r="AA17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AI17" s="3"/>
-      <c r="AU17" s="3"/>
-      <c r="AX17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AV17" s="3"/>
       <c r="AY17" s="3"/>
-      <c r="BD17" s="3"/>
+      <c r="AZ17" s="3"/>
+      <c r="BE17" s="3"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
@@ -811,15 +815,15 @@
       <c r="C18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AI18" s="3"/>
-      <c r="AU18" s="3"/>
-      <c r="AX18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AJ18" s="3"/>
+      <c r="AV18" s="3"/>
       <c r="AY18" s="3"/>
-      <c r="BD18" s="3"/>
+      <c r="AZ18" s="3"/>
+      <c r="BE18" s="3"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
@@ -829,29 +833,29 @@
       <c r="C19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AI19" s="3"/>
-      <c r="AU19" s="3"/>
-      <c r="AX19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AJ19" s="3"/>
+      <c r="AV19" s="3"/>
       <c r="AY19" s="3"/>
-      <c r="BD19" s="3"/>
+      <c r="AZ19" s="3"/>
+      <c r="BE19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AI20" s="3"/>
-      <c r="AU20" s="3"/>
-      <c r="AX20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AJ20" s="3"/>
+      <c r="AV20" s="3"/>
       <c r="AY20" s="3"/>
-      <c r="BD20" s="3"/>
+      <c r="AZ20" s="3"/>
+      <c r="BE20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="12" t="s">
@@ -945,10 +949,10 @@
         <v>49</v>
       </c>
       <c r="AE21" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF21" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="AF21" s="12" t="s">
-        <v>50</v>
       </c>
       <c r="AG21" s="12" t="s">
         <v>51</v>
@@ -990,10 +994,10 @@
         <v>63</v>
       </c>
       <c r="AT21" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AU21" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="AU21" s="12" t="s">
-        <v>64</v>
       </c>
       <c r="AV21" s="12" t="s">
         <v>65</v>
@@ -1033,6 +1037,9 @@
       </c>
       <c r="BH21" s="12" t="s">
         <v>77</v>
+      </c>
+      <c r="BI21" s="12" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/pabi_account_report/xlsx_template/xlsx_report_gl_expenditure.xlsx
+++ b/pabi_account_report/xlsx_template/xlsx_report_gl_expenditure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="80">
   <si>
     <t xml:space="preserve">Expenditure Report</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t xml:space="preserve">Payment Export</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reconcile</t>
   </si>
 </sst>
 </file>
@@ -357,7 +360,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -407,6 +410,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -427,7 +434,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BI21"/>
+  <dimension ref="A1:BJ21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -493,7 +500,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="25.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="22.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="20.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="62" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="17.92"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="63" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1041,6 +1049,9 @@
       <c r="BI21" s="12" t="s">
         <v>78</v>
       </c>
+      <c r="BJ21" s="13" t="s">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
